--- a/Data/mistral_whatif.xlsx
+++ b/Data/mistral_whatif.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parolin\Google Drive\ITA_Mestrado\root\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parolin\Documents\Projects\AEco\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2395E7AF-D051-40D5-B395-2A9243824752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A24A74-677D-4FC1-B6FF-F3CDD9AC29D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biofuel" sheetId="1" r:id="rId1"/>
     <sheet name="Composite" sheetId="5" r:id="rId2"/>
-    <sheet name="Composite+" sheetId="7" r:id="rId3"/>
+    <sheet name="Composite_fuel" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -331,7 +331,7 @@
     <author>tc={F0A9BEED-6B79-4915-89F2-00A67D6D3D65}</author>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{63068B5B-9140-4C8C-99BD-50802D1B585E}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{63068B5B-9140-4C8C-99BD-50802D1B585E}">
       <text>
         <r>
           <rPr>
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="1" shapeId="0" xr:uid="{9FBBC495-E969-40A6-B96F-C074B8A2F65E}">
+    <comment ref="C17" authorId="1" shapeId="0" xr:uid="{9FBBC495-E969-40A6-B96F-C074B8A2F65E}">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="2" shapeId="0" xr:uid="{583B34CA-611D-4320-9DF1-B035F42CC998}">
+    <comment ref="C18" authorId="2" shapeId="0" xr:uid="{583B34CA-611D-4320-9DF1-B035F42CC998}">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="3" shapeId="0" xr:uid="{67C36B18-3D20-4C1F-AD74-A4DDE7F607F6}">
+    <comment ref="C42" authorId="3" shapeId="0" xr:uid="{67C36B18-3D20-4C1F-AD74-A4DDE7F607F6}">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="4" shapeId="0" xr:uid="{97651529-C386-4377-9D94-B8AE51CDF2B0}">
+    <comment ref="C43" authorId="4" shapeId="0" xr:uid="{97651529-C386-4377-9D94-B8AE51CDF2B0}">
       <text>
         <r>
           <rPr>
@@ -416,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="5" shapeId="0" xr:uid="{FB401F61-4CEA-4571-AAA9-0D650C738698}">
+    <comment ref="C44" authorId="5" shapeId="0" xr:uid="{FB401F61-4CEA-4571-AAA9-0D650C738698}">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="6" shapeId="0" xr:uid="{BF46D670-EE46-4A5F-8E69-E749CC3C6D1D}">
+    <comment ref="C45" authorId="6" shapeId="0" xr:uid="{BF46D670-EE46-4A5F-8E69-E749CC3C6D1D}">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="7" shapeId="0" xr:uid="{8A2EEEE1-29F8-4C55-B652-95C090BC9679}">
+    <comment ref="C46" authorId="7" shapeId="0" xr:uid="{8A2EEEE1-29F8-4C55-B652-95C090BC9679}">
       <text>
         <r>
           <rPr>
@@ -467,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="8" shapeId="0" xr:uid="{DC0629D1-548F-431A-881A-A6337DCDFD76}">
+    <comment ref="C47" authorId="8" shapeId="0" xr:uid="{DC0629D1-548F-431A-881A-A6337DCDFD76}">
       <text>
         <r>
           <rPr>
@@ -484,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="9" shapeId="0" xr:uid="{6D8EBBE2-DB33-499C-894F-A82AE22A9C3C}">
+    <comment ref="C48" authorId="9" shapeId="0" xr:uid="{6D8EBBE2-DB33-499C-894F-A82AE22A9C3C}">
       <text>
         <r>
           <rPr>
@@ -501,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="10" shapeId="0" xr:uid="{29080E7B-D34F-4021-A5EC-F18D62EAEBDE}">
+    <comment ref="C49" authorId="10" shapeId="0" xr:uid="{29080E7B-D34F-4021-A5EC-F18D62EAEBDE}">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="11" shapeId="0" xr:uid="{9176CC63-EB04-4A05-8731-FBCF6BEFDB67}">
+    <comment ref="C50" authorId="11" shapeId="0" xr:uid="{9176CC63-EB04-4A05-8731-FBCF6BEFDB67}">
       <text>
         <r>
           <rPr>
@@ -535,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="12" shapeId="0" xr:uid="{F9674FCF-871E-4C69-A928-241301805617}">
+    <comment ref="C51" authorId="12" shapeId="0" xr:uid="{F9674FCF-871E-4C69-A928-241301805617}">
       <text>
         <r>
           <rPr>
@@ -552,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="13" shapeId="0" xr:uid="{4AEC0193-1EA6-4D82-AD3F-4AED0097AB89}">
+    <comment ref="C52" authorId="13" shapeId="0" xr:uid="{4AEC0193-1EA6-4D82-AD3F-4AED0097AB89}">
       <text>
         <r>
           <rPr>
@@ -569,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="14" shapeId="0" xr:uid="{676228E1-9B6A-4306-AEF1-CD44A4A3FAE5}">
+    <comment ref="C53" authorId="14" shapeId="0" xr:uid="{676228E1-9B6A-4306-AEF1-CD44A4A3FAE5}">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
     <author>tc={F0A9BEED-6B79-4915-89F2-00A67D6D3D65}</author>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{F2906D52-9150-411B-8FEC-832F0B2BD488}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{F2906D52-9150-411B-8FEC-832F0B2BD488}">
       <text>
         <r>
           <rPr>
@@ -627,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="1" shapeId="0" xr:uid="{7004E8F3-E350-40F4-B2CB-78D2D81433B4}">
+    <comment ref="C17" authorId="1" shapeId="0" xr:uid="{7004E8F3-E350-40F4-B2CB-78D2D81433B4}">
       <text>
         <r>
           <rPr>
@@ -644,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="2" shapeId="0" xr:uid="{2EBD9CC1-A366-4BC4-A432-E3DB54215D5F}">
+    <comment ref="C18" authorId="2" shapeId="0" xr:uid="{2EBD9CC1-A366-4BC4-A432-E3DB54215D5F}">
       <text>
         <r>
           <rPr>
@@ -661,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="3" shapeId="0" xr:uid="{C1CED322-7334-4544-A528-4F1F1D791F15}">
+    <comment ref="C42" authorId="3" shapeId="0" xr:uid="{C1CED322-7334-4544-A528-4F1F1D791F15}">
       <text>
         <r>
           <rPr>
@@ -678,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="4" shapeId="0" xr:uid="{B0E5EC8C-5DA5-4399-94F3-1042D88D329D}">
+    <comment ref="C43" authorId="4" shapeId="0" xr:uid="{B0E5EC8C-5DA5-4399-94F3-1042D88D329D}">
       <text>
         <r>
           <rPr>
@@ -695,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="5" shapeId="0" xr:uid="{1F93500E-45C3-4FBC-A0BD-4115792D4E57}">
+    <comment ref="C44" authorId="5" shapeId="0" xr:uid="{1F93500E-45C3-4FBC-A0BD-4115792D4E57}">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="6" shapeId="0" xr:uid="{34F08608-48EB-4CBC-8EA7-4D45806DE8F3}">
+    <comment ref="C45" authorId="6" shapeId="0" xr:uid="{34F08608-48EB-4CBC-8EA7-4D45806DE8F3}">
       <text>
         <r>
           <rPr>
@@ -729,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="7" shapeId="0" xr:uid="{66431097-BA8A-4988-B654-FCD7A4B3F5F4}">
+    <comment ref="C46" authorId="7" shapeId="0" xr:uid="{66431097-BA8A-4988-B654-FCD7A4B3F5F4}">
       <text>
         <r>
           <rPr>
@@ -746,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="8" shapeId="0" xr:uid="{DC042BFC-2498-44CC-AC83-414E2F73DDAB}">
+    <comment ref="C47" authorId="8" shapeId="0" xr:uid="{DC042BFC-2498-44CC-AC83-414E2F73DDAB}">
       <text>
         <r>
           <rPr>
@@ -763,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="9" shapeId="0" xr:uid="{533C054F-6B86-403A-B96B-BDEDD89B3998}">
+    <comment ref="C48" authorId="9" shapeId="0" xr:uid="{533C054F-6B86-403A-B96B-BDEDD89B3998}">
       <text>
         <r>
           <rPr>
@@ -780,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="10" shapeId="0" xr:uid="{A1C4B5D8-E3CB-43D6-B51C-331E3A862448}">
+    <comment ref="C49" authorId="10" shapeId="0" xr:uid="{A1C4B5D8-E3CB-43D6-B51C-331E3A862448}">
       <text>
         <r>
           <rPr>
@@ -797,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="11" shapeId="0" xr:uid="{262FD4C5-26DC-4D8B-BB0D-5EFFF5715F80}">
+    <comment ref="C50" authorId="11" shapeId="0" xr:uid="{262FD4C5-26DC-4D8B-BB0D-5EFFF5715F80}">
       <text>
         <r>
           <rPr>
@@ -814,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="12" shapeId="0" xr:uid="{2BA6EF49-A33A-498D-873B-04E6496D0726}">
+    <comment ref="C51" authorId="12" shapeId="0" xr:uid="{2BA6EF49-A33A-498D-873B-04E6496D0726}">
       <text>
         <r>
           <rPr>
@@ -831,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="13" shapeId="0" xr:uid="{C9F62F41-A6D5-4E5D-A3B0-9050D5FCF2BB}">
+    <comment ref="C52" authorId="13" shapeId="0" xr:uid="{C9F62F41-A6D5-4E5D-A3B0-9050D5FCF2BB}">
       <text>
         <r>
           <rPr>
@@ -848,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="14" shapeId="0" xr:uid="{E14667BB-4C49-4BE4-A324-D36A230F6FC5}">
+    <comment ref="C53" authorId="14" shapeId="0" xr:uid="{E14667BB-4C49-4BE4-A324-D36A230F6FC5}">
       <text>
         <r>
           <rPr>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="208">
   <si>
     <t>nominal</t>
   </si>
@@ -1503,7 +1503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,6 +1536,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1735,7 +1743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1870,6 +1878,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2279,14 +2293,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2319,7 +2333,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -2342,7 +2356,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
@@ -2365,7 +2379,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="13" t="s">
         <v>52</v>
       </c>
@@ -2388,7 +2402,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="13" t="s">
         <v>55</v>
       </c>
@@ -2412,7 +2426,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="13" t="s">
         <v>123</v>
       </c>
@@ -2427,7 +2441,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2454,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="13" t="s">
         <v>139</v>
       </c>
@@ -2459,7 +2473,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="13" t="s">
         <v>138</v>
       </c>
@@ -2480,7 +2494,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
@@ -2502,7 +2516,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="13" t="s">
         <v>85</v>
       </c>
@@ -2523,7 +2537,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="13" t="s">
         <v>86</v>
       </c>
@@ -2609,7 +2623,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="73" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -2635,7 +2649,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="14" t="s">
         <v>94</v>
       </c>
@@ -2659,7 +2673,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="14" t="s">
         <v>95</v>
       </c>
@@ -2706,7 +2720,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="70" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="40" t="s">
@@ -2729,7 +2743,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="40" t="s">
         <v>96</v>
       </c>
@@ -2750,7 +2764,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="40" t="s">
         <v>106</v>
       </c>
@@ -2774,7 +2788,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="40" t="s">
         <v>109</v>
       </c>
@@ -2798,7 +2812,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="40" t="s">
         <v>99</v>
       </c>
@@ -2820,7 +2834,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="40" t="s">
         <v>100</v>
       </c>
@@ -2842,7 +2856,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="40" t="s">
         <v>112</v>
       </c>
@@ -2865,7 +2879,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="40" t="s">
         <v>113</v>
       </c>
@@ -2888,7 +2902,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="40" t="s">
         <v>116</v>
       </c>
@@ -2911,7 +2925,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="60" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -2934,7 +2948,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="15" t="s">
         <v>22</v>
       </c>
@@ -2955,7 +2969,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="15" t="s">
         <v>23</v>
       </c>
@@ -2976,7 +2990,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="15" t="s">
         <v>31</v>
       </c>
@@ -2997,7 +3011,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="15" t="s">
         <v>24</v>
       </c>
@@ -3018,7 +3032,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="15" t="s">
         <v>25</v>
       </c>
@@ -3039,7 +3053,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="15" t="s">
         <v>26</v>
       </c>
@@ -3060,7 +3074,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="15" t="s">
         <v>27</v>
       </c>
@@ -3081,7 +3095,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="15" t="s">
         <v>28</v>
       </c>
@@ -3102,7 +3116,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="15" t="s">
         <v>32</v>
       </c>
@@ -3123,7 +3137,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="15" t="s">
         <v>29</v>
       </c>
@@ -3144,7 +3158,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="15" t="s">
         <v>30</v>
       </c>
@@ -3186,7 +3200,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="62" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -3212,7 +3226,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="23" t="s">
         <v>37</v>
       </c>
@@ -3236,7 +3250,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="23" t="s">
         <v>38</v>
       </c>
@@ -3260,7 +3274,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="23" t="s">
         <v>39</v>
       </c>
@@ -3284,7 +3298,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="65" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="26" t="s">
@@ -3310,7 +3324,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="26" t="s">
         <v>43</v>
       </c>
@@ -3333,7 +3347,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="26" t="s">
         <v>44</v>
       </c>
@@ -3356,7 +3370,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="26" t="s">
         <v>45</v>
       </c>
@@ -3379,7 +3393,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="26" t="s">
         <v>46</v>
       </c>
@@ -3402,7 +3416,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="26" t="s">
         <v>47</v>
       </c>
@@ -3425,7 +3439,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="59" t="s">
         <v>125</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -3450,7 +3464,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="16" t="s">
         <v>53</v>
       </c>
@@ -3473,7 +3487,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="66" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="29" t="s">
@@ -3499,7 +3513,7 @@
       <c r="L56" s="22"/>
     </row>
     <row r="57" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
+      <c r="A57" s="67"/>
       <c r="B57" s="29" t="s">
         <v>56</v>
       </c>
@@ -3524,7 +3538,7 @@
       <c r="L57" s="22"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="29" t="s">
         <v>57</v>
       </c>
@@ -3549,7 +3563,7 @@
       <c r="L58" s="22"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="65"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="29" t="s">
         <v>118</v>
       </c>
@@ -3574,7 +3588,7 @@
       <c r="L59" s="22"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="65"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="29" t="s">
         <v>119</v>
       </c>
@@ -3599,7 +3613,7 @@
       <c r="L60" s="22"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="29" t="s">
         <v>64</v>
       </c>
@@ -3615,7 +3629,7 @@
       <c r="L61" s="22"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
+      <c r="A62" s="67"/>
       <c r="B62" s="29" t="s">
         <v>65</v>
       </c>
@@ -3631,7 +3645,7 @@
       <c r="L62" s="22"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="29" t="s">
         <v>66</v>
       </c>
@@ -3647,7 +3661,7 @@
       <c r="L63" s="22"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
+      <c r="A64" s="67"/>
       <c r="B64" s="29" t="s">
         <v>67</v>
       </c>
@@ -3663,7 +3677,7 @@
       <c r="L64" s="22"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="29" t="s">
         <v>200</v>
       </c>
@@ -3687,7 +3701,7 @@
       <c r="L65" s="22"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
+      <c r="A66" s="67"/>
       <c r="B66" s="29" t="s">
         <v>15</v>
       </c>
@@ -3703,7 +3717,7 @@
       <c r="L66" s="22"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
+      <c r="A67" s="67"/>
       <c r="B67" s="29" t="s">
         <v>16</v>
       </c>
@@ -3719,7 +3733,7 @@
       <c r="L67" s="22"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="29" t="s">
         <v>17</v>
       </c>
@@ -3734,7 +3748,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="36" t="s">
         <v>18</v>
       </c>
@@ -3774,7 +3788,7 @@
       <c r="L70" s="22"/>
     </row>
     <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="71" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -3797,7 +3811,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="70"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="32" t="s">
         <v>79</v>
       </c>
@@ -3818,7 +3832,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="70"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="32" t="s">
         <v>71</v>
       </c>
@@ -3839,7 +3853,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="70"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="32" t="s">
         <v>72</v>
       </c>
@@ -3860,7 +3874,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="70"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="32" t="s">
         <v>73</v>
       </c>
@@ -3881,7 +3895,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="70"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="32" t="s">
         <v>120</v>
       </c>
@@ -3902,7 +3916,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="70"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="32" t="s">
         <v>74</v>
       </c>
@@ -3924,7 +3938,7 @@
       <c r="L77" s="22"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="70"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="32" t="s">
         <v>80</v>
       </c>
@@ -3946,7 +3960,7 @@
       <c r="L78" s="22"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="70"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="32" t="s">
         <v>75</v>
       </c>
@@ -3968,7 +3982,7 @@
       <c r="L79" s="22"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="70"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="32" t="s">
         <v>76</v>
       </c>
@@ -3990,7 +4004,7 @@
       <c r="L80" s="22"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="70"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="32" t="s">
         <v>77</v>
       </c>
@@ -4012,7 +4026,7 @@
       <c r="L81" s="22"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="70"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="32" t="s">
         <v>122</v>
       </c>
@@ -4034,7 +4048,7 @@
       <c r="L82" s="22"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="70"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="32" t="s">
         <v>78</v>
       </c>
@@ -4055,7 +4069,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="70"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="32" t="s">
         <v>81</v>
       </c>
@@ -4076,7 +4090,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="70"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="32" t="s">
         <v>82</v>
       </c>
@@ -4097,7 +4111,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="70"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="32" t="s">
         <v>83</v>
       </c>
@@ -4118,7 +4132,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="70"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="32" t="s">
         <v>84</v>
       </c>
@@ -4139,7 +4153,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="70"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="32" t="s">
         <v>121</v>
       </c>
@@ -4232,11 +4246,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC2065A-464B-4A8F-BACE-8186BE6C8459}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4249,14 +4263,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4289,7 +4303,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -4312,7 +4326,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
@@ -4335,7 +4349,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="13" t="s">
         <v>52</v>
       </c>
@@ -4358,7 +4372,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="13" t="s">
         <v>55</v>
       </c>
@@ -4382,1759 +4396,1647 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="69"/>
+      <c r="B9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="18">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18">
+        <v>12</v>
+      </c>
+      <c r="E9" s="18">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="69"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1110</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1110</v>
+      </c>
+      <c r="E10" s="18">
+        <f>C10*2</f>
+        <v>2220</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="69"/>
+      <c r="B11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="18">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="18">
         <v>123</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.85</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="D12" s="18">
+        <f>C12*0.9</f>
+        <v>110.7</v>
+      </c>
+      <c r="E12" s="18">
+        <f>C12</f>
+        <v>123</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="18">
+        <v>10</v>
+      </c>
+      <c r="D13" s="18">
+        <f>C13*0.8</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="18">
+        <f>C13*1.2</f>
         <v>12</v>
       </c>
-      <c r="D11" s="18">
-        <v>12</v>
-      </c>
-      <c r="E11" s="18">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1110</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1110</v>
-      </c>
-      <c r="E12" s="18">
-        <f>C12*2</f>
-        <v>2220</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="18">
-        <v>15</v>
-      </c>
-      <c r="D13" s="18">
-        <v>10</v>
-      </c>
-      <c r="E13" s="18">
-        <v>25</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="13" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C14" s="18">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="D14" s="18">
-        <f>C14*0.9</f>
-        <v>110.7</v>
-      </c>
-      <c r="E14" s="18">
-        <f>C14</f>
-        <v>123</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
+        <f t="shared" ref="D14:D15" si="0">C14*0.8</f>
+        <v>16</v>
+      </c>
+      <c r="E14" s="55">
+        <f t="shared" ref="E14:E15" si="1">C14*1.2</f>
+        <v>24</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="18">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="56">
+        <v>70</v>
       </c>
       <c r="D15" s="18">
-        <f>C15*0.8</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="E15" s="18">
-        <f>C15*1.2</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18">
-        <v>20</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" ref="D16:D17" si="0">C16*0.8</f>
-        <v>16</v>
-      </c>
-      <c r="E16" s="18">
-        <f t="shared" ref="E16:E17" si="1">C16*1.2</f>
-        <v>24</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="19">
+        <f>107087/500*C21</f>
+        <v>57826.98</v>
+      </c>
+      <c r="D16" s="19">
+        <f>107087/500*D21</f>
+        <v>42834.8</v>
+      </c>
+      <c r="E16" s="19">
+        <f>107087/500*E21</f>
+        <v>64252.200000000004</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="18">
-        <v>70</v>
-      </c>
-      <c r="D17" s="18">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E17" s="18">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="19">
-        <f>107087/500*C23</f>
-        <v>57826.98</v>
-      </c>
-      <c r="D18" s="19">
-        <f>107087/500*D23</f>
-        <v>42834.8</v>
-      </c>
-      <c r="E18" s="19">
-        <f>107087/500*E23</f>
-        <v>64252.200000000004</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="14" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="19">
-        <f>190/500*C23</f>
+      <c r="C17" s="19">
+        <f>190/500*C21</f>
         <v>102.6</v>
       </c>
-      <c r="D19" s="19">
-        <f t="shared" ref="D19:E19" si="2">190/500*D23</f>
+      <c r="D17" s="19">
+        <f t="shared" ref="D17:E17" si="2">190/500*D21</f>
         <v>76</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
-      <c r="B20" s="14" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="74"/>
+      <c r="B18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="19">
-        <f>3000/4/500*C23</f>
+      <c r="C18" s="19">
+        <f>3000/4/500*C21</f>
         <v>405</v>
       </c>
-      <c r="D20" s="19">
-        <f t="shared" ref="D20:E20" si="3">3000/4/500*D23</f>
+      <c r="D18" s="19">
+        <f t="shared" ref="D18:E18" si="3">3000/4/500*D21</f>
         <v>300</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E18" s="19">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="51"/>
+      <c r="B19" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="19">
+        <v>466</v>
+      </c>
+      <c r="D19" s="19">
+        <f>C19*0.8</f>
+        <v>372.8</v>
+      </c>
+      <c r="E19" s="19">
+        <f>C19*1.2</f>
+        <v>559.19999999999993</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="41">
+        <v>57</v>
+      </c>
+      <c r="D20" s="41">
+        <v>51</v>
+      </c>
+      <c r="E20" s="41">
+        <v>57</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="19">
-        <v>466</v>
-      </c>
-      <c r="D21" s="19">
-        <f>C21*0.8</f>
-        <v>372.8</v>
-      </c>
-      <c r="E21" s="19">
-        <f>C21*1.2</f>
-        <v>559.19999999999993</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>146</v>
+      <c r="A21" s="70"/>
+      <c r="B21" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="43">
+        <v>270</v>
+      </c>
+      <c r="D21" s="43">
+        <v>200</v>
+      </c>
+      <c r="E21" s="43">
+        <v>300</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="68" t="s">
-        <v>90</v>
-      </c>
+      <c r="A22" s="70"/>
       <c r="B22" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="41">
-        <v>57</v>
-      </c>
-      <c r="D22" s="41">
-        <v>51</v>
-      </c>
-      <c r="E22" s="41">
-        <v>57</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="43">
-        <v>270</v>
-      </c>
-      <c r="D23" s="43">
-        <v>200</v>
-      </c>
-      <c r="E23" s="43">
-        <v>300</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C22" s="43">
         <f>18470/12</f>
         <v>1539.1666666666667</v>
       </c>
-      <c r="D24" s="43">
-        <f>C24*0.8</f>
+      <c r="D22" s="43">
+        <f>C22*0.8</f>
         <v>1231.3333333333335</v>
       </c>
-      <c r="E24" s="43">
-        <f>C24*1.2</f>
+      <c r="E22" s="43">
+        <f>C22*1.2</f>
         <v>1847</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F22" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G22" s="42" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="40" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="70"/>
+      <c r="B23" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C23" s="43">
         <f>20*1000</f>
         <v>20000</v>
       </c>
+      <c r="D23" s="43">
+        <f>C23*0.8</f>
+        <v>16000</v>
+      </c>
+      <c r="E23" s="43">
+        <f>C23*1.2</f>
+        <v>24000</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="70"/>
+      <c r="B24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="43">
+        <v>6354</v>
+      </c>
+      <c r="D24" s="43">
+        <v>4720</v>
+      </c>
+      <c r="E24" s="43">
+        <f>C24</f>
+        <v>6354</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="70"/>
+      <c r="B25" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="43">
+        <v>4</v>
+      </c>
       <c r="D25" s="43">
-        <f>C25*0.8</f>
-        <v>16000</v>
+        <f>C25</f>
+        <v>4</v>
       </c>
       <c r="E25" s="43">
-        <f>C25*1.2</f>
-        <v>24000</v>
+        <v>5</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="40" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C26" s="43">
-        <v>6354</v>
+        <v>2</v>
       </c>
       <c r="D26" s="43">
-        <v>4720</v>
+        <f>C26</f>
+        <v>2</v>
       </c>
       <c r="E26" s="43">
         <f>C26</f>
-        <v>6354</v>
+        <v>2</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="40" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C27" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="43">
         <f>C27</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="43">
-        <v>5</v>
+        <f>C27</f>
+        <v>2</v>
       </c>
       <c r="F27" s="42" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C28" s="43">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D28" s="43">
         <f>C28</f>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="43">
         <f>C28</f>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="43">
-        <v>2</v>
-      </c>
-      <c r="D29" s="43">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="D29" s="20">
         <f>C29</f>
-        <v>2</v>
-      </c>
-      <c r="E29" s="43">
+        <v>0.02</v>
+      </c>
+      <c r="E29" s="20">
         <f>C29</f>
-        <v>2</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>114</v>
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="43">
-        <v>1000</v>
-      </c>
-      <c r="D30" s="43">
-        <f>C30</f>
-        <v>1000</v>
-      </c>
-      <c r="E30" s="43">
-        <f>C30</f>
-        <v>1000</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
-        <v>60</v>
-      </c>
+      <c r="A30" s="61"/>
+      <c r="B30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" ref="D30:D34" si="4">C30</f>
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" ref="E30:E34" si="5">C30</f>
+        <v>0.02</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="61"/>
       <c r="B31" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" s="20">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="D31" s="20">
-        <f>C31</f>
-        <v>0.02</v>
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
       <c r="E31" s="20">
-        <f>C31</f>
-        <v>0.02</v>
+        <f t="shared" si="5"/>
+        <v>0.9</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C32" s="20">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" ref="D32:D36" si="4">C32</f>
-        <v>0.02</v>
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" ref="E32:E36" si="5">C32</f>
-        <v>0.02</v>
+        <f t="shared" si="5"/>
+        <v>0.04</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="20">
-        <v>0.9</v>
+        <v>0.02</v>
       </c>
       <c r="D33" s="20">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.02</v>
       </c>
       <c r="E33" s="20">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>0.02</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C34" s="20">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D34" s="20">
         <f t="shared" si="4"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E34" s="20">
         <f t="shared" si="5"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C35" s="20">
-        <v>0.02</v>
+        <v>15</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
+        <f>C35*0.8</f>
+        <v>12</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="5"/>
-        <v>0.02</v>
+        <f>C35*1.2</f>
+        <v>18</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36" s="20">
-        <v>0.05</v>
+        <v>15</v>
       </c>
       <c r="D36" s="20">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
+        <f t="shared" ref="D36:D40" si="6">C36*0.8</f>
+        <v>12</v>
       </c>
       <c r="E36" s="20">
-        <f t="shared" si="5"/>
-        <v>0.05</v>
+        <f t="shared" ref="E36:E40" si="7">C36*1.2</f>
+        <v>18</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37" s="20">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="D37" s="20">
-        <f>C37*0.8</f>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.96</v>
       </c>
       <c r="E37" s="20">
-        <f>C37*1.2</f>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>1.44</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C38" s="20">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="D38" s="20">
-        <f t="shared" ref="D38:D42" si="6">C38*0.8</f>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.96</v>
       </c>
       <c r="E38" s="20">
-        <f t="shared" ref="E38:E42" si="7">C38*1.2</f>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>1.44</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" s="20">
-        <v>1.2</v>
+        <v>15</v>
       </c>
       <c r="D39" s="20">
         <f t="shared" si="6"/>
-        <v>0.96</v>
+        <v>12</v>
       </c>
       <c r="E39" s="20">
         <f t="shared" si="7"/>
-        <v>1.44</v>
+        <v>18</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" s="20">
-        <v>1.2</v>
+        <v>15</v>
       </c>
       <c r="D40" s="20">
         <f t="shared" si="6"/>
-        <v>0.96</v>
+        <v>12</v>
       </c>
       <c r="E40" s="20">
         <f t="shared" si="7"/>
-        <v>1.44</v>
+        <v>18</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="15" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C41" s="20">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="D41" s="20">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f>C41*0.8</f>
+        <v>0.55999999999999994</v>
       </c>
       <c r="E41" s="20">
-        <f t="shared" si="7"/>
-        <v>18</v>
+        <f t="shared" ref="E41" si="8">C41</f>
+        <v>0.7</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="20">
-        <v>15</v>
-      </c>
-      <c r="D42" s="20">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="E42" s="20">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="D43" s="20">
-        <f>C43*0.8</f>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="E43" s="20">
-        <f t="shared" ref="E43" si="8">C43</f>
-        <v>0.7</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="60" t="s">
+    <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B42" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="24">
-        <f>80000/18000*(C26*2)</f>
+      <c r="C42" s="24">
+        <f>80000/18000*(C24*2)</f>
         <v>56480</v>
       </c>
-      <c r="D44" s="24">
-        <f t="shared" ref="D44:E44" si="9">80000/18000*(D26*2)</f>
+      <c r="D42" s="24">
+        <f t="shared" ref="D42:E42" si="9">80000/18000*(D24*2)</f>
         <v>41955.555555555555</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E42" s="24">
         <f t="shared" si="9"/>
         <v>56480</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F42" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G42" s="25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
-      <c r="B45" s="23" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="63"/>
+      <c r="B43" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="24">
-        <f>80/18000*(2*C26)</f>
+      <c r="C43" s="24">
+        <f>80/18000*(2*C24)</f>
         <v>56.48</v>
       </c>
-      <c r="D45" s="24">
-        <f t="shared" ref="D45:E45" si="10">80/18000*(2*D26)</f>
+      <c r="D43" s="24">
+        <f t="shared" ref="D43:E43" si="10">80/18000*(2*D24)</f>
         <v>41.955555555555556</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E43" s="24">
         <f t="shared" si="10"/>
         <v>56.48</v>
       </c>
+      <c r="F43" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="63"/>
+      <c r="B44" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="24">
+        <f>64/18000*(2*C24)</f>
+        <v>45.184000000000005</v>
+      </c>
+      <c r="D44" s="24">
+        <f t="shared" ref="D44:E44" si="11">64/18000*(2*D24)</f>
+        <v>33.564444444444447</v>
+      </c>
+      <c r="E44" s="24">
+        <f t="shared" si="11"/>
+        <v>45.184000000000005</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="64"/>
+      <c r="B45" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="24">
+        <f>(15+15+20+20+20+20+19+19+20+20+20+20+20+20)/1000/18000*(2*C24)</f>
+        <v>0.18920800000000002</v>
+      </c>
+      <c r="D45" s="24">
+        <f t="shared" ref="D45:E45" si="12">(15+15+20+20+20+20+19+19+20+20+20+20+20+20)/1000/18000*(2*D24)</f>
+        <v>0.14055111111111113</v>
+      </c>
+      <c r="E45" s="24">
+        <f t="shared" si="12"/>
+        <v>0.18920800000000002</v>
+      </c>
       <c r="F45" s="25" t="s">
         <v>105</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
-      <c r="B46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="24">
-        <f>64/18000*(2*C26)</f>
-        <v>45.184000000000005</v>
-      </c>
-      <c r="D46" s="24">
-        <f t="shared" ref="D46:E46" si="11">64/18000*(2*D26)</f>
-        <v>33.564444444444447</v>
-      </c>
-      <c r="E46" s="24">
-        <f t="shared" si="11"/>
-        <v>45.184000000000005</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="24">
-        <f>(15+15+20+20+20+20+19+19+20+20+20+20+20+20)/1000/18000*(2*C26)</f>
-        <v>0.18920800000000002</v>
-      </c>
-      <c r="D47" s="24">
-        <f t="shared" ref="D47:E47" si="12">(15+15+20+20+20+20+19+19+20+20+20+20+20+20)/1000/18000*(2*D26)</f>
-        <v>0.14055111111111113</v>
-      </c>
-      <c r="E47" s="24">
-        <f t="shared" si="12"/>
-        <v>0.18920800000000002</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="63" t="s">
+      <c r="A46" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B46" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C46" s="27">
         <f>362+159</f>
         <v>521</v>
       </c>
+      <c r="D46" s="27">
+        <f>C46*0.8</f>
+        <v>416.8</v>
+      </c>
+      <c r="E46" s="27">
+        <f>C46*1.2</f>
+        <v>625.19999999999993</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="65"/>
+      <c r="B47" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="27">
+        <v>7602.94</v>
+      </c>
+      <c r="D47" s="27">
+        <f t="shared" ref="D47:D53" si="13">C47*0.8</f>
+        <v>6082.3519999999999</v>
+      </c>
+      <c r="E47" s="27">
+        <f t="shared" ref="E47:E53" si="14">C47*1.2</f>
+        <v>9123.5279999999984</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="65"/>
+      <c r="B48" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="27">
+        <v>8443.268</v>
+      </c>
       <c r="D48" s="27">
-        <f>C48*0.8</f>
-        <v>416.8</v>
+        <f t="shared" si="13"/>
+        <v>6754.6144000000004</v>
       </c>
       <c r="E48" s="27">
-        <f>C48*1.2</f>
-        <v>625.19999999999993</v>
+        <f t="shared" si="14"/>
+        <v>10131.9216</v>
       </c>
       <c r="F48" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C49" s="27">
-        <v>7602.94</v>
+        <v>3</v>
       </c>
       <c r="D49" s="27">
-        <f t="shared" ref="D49:D55" si="13">C49*0.8</f>
-        <v>6082.3519999999999</v>
+        <f t="shared" si="13"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="E49" s="27">
-        <f t="shared" ref="E49:E55" si="14">C49*1.2</f>
-        <v>9123.5279999999984</v>
+        <f t="shared" si="14"/>
+        <v>3.5999999999999996</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" s="27">
-        <v>8443.268</v>
+        <v>21.5</v>
       </c>
       <c r="D50" s="27">
         <f t="shared" si="13"/>
-        <v>6754.6144000000004</v>
+        <v>17.2</v>
       </c>
       <c r="E50" s="27">
         <f t="shared" si="14"/>
-        <v>10131.9216</v>
+        <v>25.8</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C51" s="27">
-        <v>3</v>
+        <v>12.6</v>
       </c>
       <c r="D51" s="27">
         <f t="shared" si="13"/>
-        <v>2.4000000000000004</v>
+        <v>10.08</v>
       </c>
       <c r="E51" s="27">
         <f t="shared" si="14"/>
-        <v>3.5999999999999996</v>
+        <v>15.12</v>
       </c>
       <c r="F51" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
-      <c r="B52" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="27">
-        <v>21.5</v>
-      </c>
-      <c r="D52" s="27">
-        <f t="shared" si="13"/>
-        <v>17.2</v>
-      </c>
-      <c r="E52" s="27">
-        <f t="shared" si="14"/>
-        <v>25.8</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
-      <c r="B53" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="27">
-        <v>12.6</v>
-      </c>
-      <c r="D53" s="27">
-        <f t="shared" si="13"/>
-        <v>10.08</v>
-      </c>
-      <c r="E53" s="27">
-        <f t="shared" si="14"/>
-        <v>15.12</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="28" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="57" t="s">
+    <row r="52" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B52" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C52" s="21">
         <v>48800000</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D52" s="21">
         <f t="shared" si="13"/>
         <v>39040000</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E52" s="21">
         <f t="shared" si="14"/>
         <v>58560000</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
-      <c r="B55" s="16" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="59"/>
+      <c r="B53" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C53" s="21">
         <v>307736</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D53" s="21">
         <f t="shared" si="13"/>
         <v>246188.80000000002</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E53" s="21">
         <f t="shared" si="14"/>
         <v>369283.2</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G53" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64" t="s">
+    <row r="54" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B54" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C54" s="46">
         <v>0.49059999999999998</v>
       </c>
-      <c r="D56" s="46">
-        <f>C56*0.9622</f>
+      <c r="D54" s="46">
+        <f>C54*0.9622</f>
         <v>0.47205532</v>
       </c>
-      <c r="E56" s="46">
-        <f>C56*1.033</f>
+      <c r="E54" s="46">
+        <f>C54*1.033</f>
         <v>0.50678979999999996</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="G54" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="L56" s="22"/>
-    </row>
-    <row r="57" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="29" t="s">
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67"/>
+      <c r="B55" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C55" s="30">
         <f>22.7/5</f>
         <v>4.54</v>
       </c>
+      <c r="D55" s="30">
+        <f t="shared" ref="D55:D58" si="15">C55*0.8</f>
+        <v>3.6320000000000001</v>
+      </c>
+      <c r="E55" s="30">
+        <f t="shared" ref="E55:E58" si="16">C55*1.2</f>
+        <v>5.4479999999999995</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="67"/>
+      <c r="B56" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="30">
+        <f>220/5*100</f>
+        <v>4400</v>
+      </c>
+      <c r="D56" s="30">
+        <f t="shared" si="15"/>
+        <v>3520</v>
+      </c>
+      <c r="E56" s="30">
+        <f t="shared" si="16"/>
+        <v>5280</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="67"/>
+      <c r="B57" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="30">
+        <f>4.5/5</f>
+        <v>0.9</v>
+      </c>
       <c r="D57" s="30">
-        <f t="shared" ref="D57:D60" si="15">C57*0.8</f>
-        <v>3.6320000000000001</v>
+        <f t="shared" si="15"/>
+        <v>0.72000000000000008</v>
       </c>
       <c r="E57" s="30">
-        <f t="shared" ref="E57:E60" si="16">C57*1.2</f>
-        <v>5.4479999999999995</v>
+        <f t="shared" si="16"/>
+        <v>1.08</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>58</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L57" s="22"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="29" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C58" s="30">
-        <f>220/5*100</f>
-        <v>4400</v>
+        <f>53.328/5</f>
+        <v>10.665600000000001</v>
       </c>
       <c r="D58" s="30">
         <f t="shared" si="15"/>
-        <v>3520</v>
+        <v>8.5324800000000014</v>
       </c>
       <c r="E58" s="30">
         <f t="shared" si="16"/>
-        <v>5280</v>
+        <v>12.798720000000001</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>58</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L58" s="22"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="65"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="30">
-        <f>4.5/5</f>
-        <v>0.9</v>
-      </c>
-      <c r="D59" s="30">
-        <f t="shared" si="15"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="E59" s="30">
-        <f t="shared" si="16"/>
-        <v>1.08</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="31" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L59" s="22"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="65"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="29" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="C60" s="30">
-        <f>53.328/5</f>
-        <v>10.665600000000001</v>
+        <v>35</v>
       </c>
       <c r="D60" s="30">
-        <f t="shared" si="15"/>
-        <v>8.5324800000000014</v>
+        <f>C60*0.8</f>
+        <v>28</v>
       </c>
       <c r="E60" s="30">
-        <f t="shared" si="16"/>
-        <v>12.798720000000001</v>
+        <f>C60*1.1</f>
+        <v>38.5</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L60" s="22"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31" t="s">
-        <v>19</v>
+      <c r="A61" s="47"/>
+      <c r="B61" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="48">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="D61" s="48">
+        <f>C61*0.9622</f>
+        <v>0.41836456000000005</v>
+      </c>
+      <c r="E61" s="48">
+        <f>C61*1.033</f>
+        <v>0.4491484</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
-      <c r="B62" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="L62" s="22"/>
+    <row r="62" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D62" s="33">
+        <f>C62*0.8</f>
+        <v>0.2</v>
+      </c>
+      <c r="E62" s="33">
+        <f>C62*1.2</f>
+        <v>0.3</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
-      <c r="B63" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="L63" s="22"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="D63" s="33">
+        <f t="shared" ref="D63:D79" si="17">C63*0.8</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E63" s="33">
+        <f t="shared" ref="E63:E79" si="18">C63*1.2</f>
+        <v>0.24</v>
+      </c>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
-      <c r="B64" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="L64" s="22"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="D64" s="33">
+        <f t="shared" si="17"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E64" s="33">
+        <f t="shared" si="18"/>
+        <v>0.24</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="30">
-        <v>35</v>
-      </c>
-      <c r="D65" s="30">
-        <f>C65*0.8</f>
-        <v>28</v>
-      </c>
-      <c r="E65" s="30">
-        <f>C65*1.1</f>
-        <v>38.5</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="L65" s="22"/>
+      <c r="A65" s="72"/>
+      <c r="B65" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="D65" s="33">
+        <f t="shared" si="17"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E65" s="33">
+        <f t="shared" si="18"/>
+        <v>0.24</v>
+      </c>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="L66" s="22"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="33">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="E66" s="33">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="B67" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="L67" s="22"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="33">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="E67" s="33">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="31" t="s">
-        <v>204</v>
-      </c>
+      <c r="A68" s="72"/>
+      <c r="B68" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="D68" s="33">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="E68" s="33">
+        <f t="shared" si="18"/>
+        <v>0.3</v>
+      </c>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="L68" s="22"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="31" t="s">
-        <v>205</v>
+      <c r="A69" s="72"/>
+      <c r="B69" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="D69" s="33">
+        <f t="shared" si="17"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E69" s="33">
+        <f t="shared" si="18"/>
+        <v>0.12</v>
+      </c>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34" t="s">
+        <v>180</v>
       </c>
       <c r="L69" s="22"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="47"/>
-      <c r="B70" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="48">
-        <v>0.43480000000000002</v>
-      </c>
-      <c r="D70" s="48">
-        <f>C70*0.9622</f>
-        <v>0.41836456000000005</v>
-      </c>
-      <c r="E70" s="48">
-        <f>C70*1.033</f>
-        <v>0.4491484</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="31" t="s">
-        <v>206</v>
+      <c r="A70" s="72"/>
+      <c r="B70" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="D70" s="33">
+        <f t="shared" si="17"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E70" s="33">
+        <f t="shared" si="18"/>
+        <v>0.12</v>
+      </c>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="69" t="s">
-        <v>69</v>
-      </c>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="72"/>
       <c r="B71" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="33">
-        <v>0.25</v>
+        <v>76</v>
+      </c>
+      <c r="C71" s="35">
+        <v>0.1</v>
       </c>
       <c r="D71" s="33">
-        <f>C71*0.8</f>
-        <v>0.2</v>
+        <f t="shared" si="17"/>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E71" s="33">
-        <f>C71*1.2</f>
-        <v>0.3</v>
+        <f t="shared" si="18"/>
+        <v>0.12</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34" t="s">
-        <v>173</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="L71" s="22"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="70"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="33">
-        <v>0.2</v>
+        <v>77</v>
+      </c>
+      <c r="C72" s="35">
+        <v>0.45</v>
       </c>
       <c r="D72" s="33">
-        <f t="shared" ref="D72:D88" si="17">C72*0.8</f>
-        <v>0.16000000000000003</v>
+        <f t="shared" si="17"/>
+        <v>0.36000000000000004</v>
       </c>
       <c r="E72" s="33">
-        <f t="shared" ref="E72:E88" si="18">C72*1.2</f>
-        <v>0.24</v>
+        <f t="shared" si="18"/>
+        <v>0.54</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34" t="s">
-        <v>174</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="L72" s="22"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="70"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="33">
-        <v>0.2</v>
+        <v>122</v>
+      </c>
+      <c r="C73" s="35">
+        <v>0.45</v>
       </c>
       <c r="D73" s="33">
         <f t="shared" si="17"/>
-        <v>0.16000000000000003</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="E73" s="33">
         <f t="shared" si="18"/>
-        <v>0.24</v>
+        <v>0.54</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34" t="s">
-        <v>175</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="L73" s="22"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="70"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="32" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C74" s="35">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D74" s="33">
         <f t="shared" si="17"/>
-        <v>0.16000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="E74" s="33">
         <f t="shared" si="18"/>
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="70"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="35">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="C75" s="33">
+        <v>0.7</v>
       </c>
       <c r="D75" s="33">
         <f t="shared" si="17"/>
-        <v>0.4</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="E75" s="33">
         <f t="shared" si="18"/>
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="70"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="35">
-        <v>0.5</v>
+        <v>82</v>
+      </c>
+      <c r="C76" s="33">
+        <v>0.7</v>
       </c>
       <c r="D76" s="33">
         <f t="shared" si="17"/>
-        <v>0.4</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="E76" s="33">
         <f t="shared" si="18"/>
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="70"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="35">
-        <v>0.25</v>
+        <v>83</v>
+      </c>
+      <c r="C77" s="33">
+        <v>0.7</v>
       </c>
       <c r="D77" s="33">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="E77" s="33">
         <f t="shared" si="18"/>
-        <v>0.3</v>
+        <v>0.84</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="L77" s="22"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="70"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="35">
-        <v>0.1</v>
+        <v>84</v>
+      </c>
+      <c r="C78" s="33">
+        <v>0.05</v>
       </c>
       <c r="D78" s="33">
         <f t="shared" si="17"/>
-        <v>8.0000000000000016E-2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E78" s="33">
         <f t="shared" si="18"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="L78" s="22"/>
+        <v>189</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="70"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="35">
-        <v>0.1</v>
+        <v>121</v>
+      </c>
+      <c r="C79" s="33">
+        <v>0.05</v>
       </c>
       <c r="D79" s="33">
         <f t="shared" si="17"/>
-        <v>8.0000000000000016E-2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E79" s="33">
         <f t="shared" si="18"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="L79" s="22"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="70"/>
-      <c r="B80" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="D80" s="33">
-        <f t="shared" si="17"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E80" s="33">
-        <f t="shared" si="18"/>
-        <v>0.12</v>
-      </c>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="L80" s="22"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="70"/>
-      <c r="B81" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="35">
-        <v>0.45</v>
-      </c>
-      <c r="D81" s="33">
-        <f t="shared" si="17"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="E81" s="33">
-        <f t="shared" si="18"/>
-        <v>0.54</v>
-      </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34" t="s">
-        <v>183</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="70"/>
-      <c r="B82" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="35">
-        <v>0.45</v>
-      </c>
-      <c r="D82" s="33">
-        <f t="shared" si="17"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="E82" s="33">
-        <f t="shared" si="18"/>
-        <v>0.54</v>
-      </c>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="L82" s="22"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="70"/>
-      <c r="B83" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="D83" s="33">
-        <f t="shared" si="17"/>
-        <v>0.4</v>
-      </c>
-      <c r="E83" s="33">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="70"/>
-      <c r="B84" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="D84" s="33">
-        <f t="shared" si="17"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="E84" s="33">
-        <f t="shared" si="18"/>
-        <v>0.84</v>
-      </c>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="70"/>
-      <c r="B85" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="D85" s="33">
-        <f t="shared" si="17"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="E85" s="33">
-        <f t="shared" si="18"/>
-        <v>0.84</v>
-      </c>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="70"/>
-      <c r="B86" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="D86" s="33">
-        <f t="shared" si="17"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="E86" s="33">
-        <f t="shared" si="18"/>
-        <v>0.84</v>
-      </c>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="70"/>
-      <c r="B87" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="D87" s="33">
-        <f t="shared" si="17"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E87" s="33">
-        <f t="shared" si="18"/>
-        <v>0.06</v>
-      </c>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="70"/>
-      <c r="B88" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C88" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="D88" s="33">
-        <f t="shared" si="17"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E88" s="33">
-        <f t="shared" si="18"/>
-        <v>0.06</v>
-      </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L90" s="22"/>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="22"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L103" s="22"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L104" s="22"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L105" s="22"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L106" s="22"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L107" s="22"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L108" s="22"/>
     </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L109" s="22"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L110" s="22"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L111" s="22"/>
+    </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L112" s="22"/>
     </row>
@@ -6147,48 +6049,21 @@
     <row r="115" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L115" s="22"/>
     </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L116" s="22"/>
-    </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L117" s="22"/>
     </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L118" s="22"/>
-    </row>
-    <row r="119" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L119" s="22"/>
-    </row>
-    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L120" s="22"/>
-    </row>
-    <row r="121" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L121" s="22"/>
-    </row>
-    <row r="122" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L122" s="22"/>
-    </row>
-    <row r="123" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L123" s="22"/>
-    </row>
-    <row r="124" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L124" s="22"/>
-    </row>
-    <row r="126" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L126" s="22"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A69"/>
-    <mergeCell ref="A71:A88"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A79"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A42:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6198,11 +6073,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DF4B96-9AE4-488A-98EF-DD5A99AAD3F8}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6215,14 +6090,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -6255,7 +6130,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -6278,7 +6153,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
@@ -6302,7 +6177,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="13" t="s">
         <v>52</v>
       </c>
@@ -6325,7 +6200,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="13" t="s">
         <v>55</v>
       </c>
@@ -6349,1761 +6224,1649 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="69"/>
+      <c r="B9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="18">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18">
+        <v>12</v>
+      </c>
+      <c r="E9" s="18">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="69"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1110</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1110</v>
+      </c>
+      <c r="E10" s="18">
+        <f>C10*2</f>
+        <v>2220</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="69"/>
+      <c r="B11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="18">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="18">
         <v>123</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.85</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="D12" s="18">
+        <f>C12*0.9</f>
+        <v>110.7</v>
+      </c>
+      <c r="E12" s="18">
+        <f>C12</f>
+        <v>123</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="18">
+        <v>10</v>
+      </c>
+      <c r="D13" s="18">
+        <f>C13*0.8</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="18">
+        <f>C13*1.2</f>
         <v>12</v>
       </c>
-      <c r="D11" s="18">
-        <v>12</v>
-      </c>
-      <c r="E11" s="18">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1110</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1110</v>
-      </c>
-      <c r="E12" s="18">
-        <f>C12*2</f>
-        <v>2220</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="18">
-        <v>15</v>
-      </c>
-      <c r="D13" s="18">
-        <v>10</v>
-      </c>
-      <c r="E13" s="18">
-        <v>25</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="13" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C14" s="18">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="D14" s="18">
-        <f>C14*0.9</f>
-        <v>110.7</v>
+        <f t="shared" ref="D14:D15" si="0">C14*0.8</f>
+        <v>16</v>
       </c>
       <c r="E14" s="18">
-        <f>C14</f>
-        <v>123</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
-      </c>
+        <f t="shared" ref="E14:E15" si="1">C14*1.2</f>
+        <v>24</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
       <c r="B15" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="18">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D15" s="18">
-        <f>C15*0.8</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="E15" s="18">
-        <f>C15*1.2</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18">
-        <v>20</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" ref="D16:D17" si="0">C16*0.8</f>
-        <v>16</v>
-      </c>
-      <c r="E16" s="18">
-        <f t="shared" ref="E16:E17" si="1">C16*1.2</f>
-        <v>24</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="19">
+        <f>107087/500*C21</f>
+        <v>57826.98</v>
+      </c>
+      <c r="D16" s="19">
+        <f>107087/500*D21</f>
+        <v>42834.8</v>
+      </c>
+      <c r="E16" s="19">
+        <f>107087/500*E21</f>
+        <v>64252.200000000004</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="18">
-        <v>70</v>
-      </c>
-      <c r="D17" s="18">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E17" s="18">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="19">
-        <f>107087/500*C23</f>
-        <v>57826.98</v>
-      </c>
-      <c r="D18" s="19">
-        <f>107087/500*D23</f>
-        <v>42834.8</v>
-      </c>
-      <c r="E18" s="19">
-        <f>107087/500*E23</f>
-        <v>64252.200000000004</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="14" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="19">
-        <f>190/500*C23</f>
+      <c r="C17" s="19">
+        <f>190/500*C21</f>
         <v>102.6</v>
       </c>
-      <c r="D19" s="19">
-        <f t="shared" ref="D19:E19" si="2">190/500*D23</f>
+      <c r="D17" s="19">
+        <f t="shared" ref="D17:E17" si="2">190/500*D21</f>
         <v>76</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
-      <c r="B20" s="14" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="74"/>
+      <c r="B18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="19">
-        <f>3000/4/500*C23</f>
+      <c r="C18" s="19">
+        <f>3000/4/500*C21</f>
         <v>405</v>
       </c>
-      <c r="D20" s="19">
-        <f t="shared" ref="D20:E20" si="3">3000/4/500*D23</f>
+      <c r="D18" s="19">
+        <f t="shared" ref="D18:E18" si="3">3000/4/500*D21</f>
         <v>300</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E18" s="19">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="53"/>
+      <c r="B19" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="19">
+        <v>466</v>
+      </c>
+      <c r="D19" s="19">
+        <f>C19*0.8</f>
+        <v>372.8</v>
+      </c>
+      <c r="E19" s="19">
+        <f>C19*1.2</f>
+        <v>559.19999999999993</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="41">
+        <v>57</v>
+      </c>
+      <c r="D20" s="41">
+        <v>51</v>
+      </c>
+      <c r="E20" s="41">
+        <v>57</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="19">
-        <v>466</v>
-      </c>
-      <c r="D21" s="19">
-        <f>C21*0.8</f>
-        <v>372.8</v>
-      </c>
-      <c r="E21" s="19">
-        <f>C21*1.2</f>
-        <v>559.19999999999993</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>146</v>
+      <c r="A21" s="70"/>
+      <c r="B21" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="43">
+        <v>270</v>
+      </c>
+      <c r="D21" s="43">
+        <v>200</v>
+      </c>
+      <c r="E21" s="43">
+        <v>300</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="68" t="s">
-        <v>90</v>
-      </c>
+      <c r="A22" s="70"/>
       <c r="B22" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="41">
-        <v>57</v>
-      </c>
-      <c r="D22" s="41">
-        <v>51</v>
-      </c>
-      <c r="E22" s="41">
-        <v>57</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="43">
-        <v>270</v>
-      </c>
-      <c r="D23" s="43">
-        <v>200</v>
-      </c>
-      <c r="E23" s="43">
-        <v>300</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C22" s="43">
         <f>18470/12</f>
         <v>1539.1666666666667</v>
       </c>
-      <c r="D24" s="43">
-        <f>C24*0.8</f>
+      <c r="D22" s="43">
+        <f>C22*0.8</f>
         <v>1231.3333333333335</v>
       </c>
-      <c r="E24" s="43">
-        <f>C24*1.2</f>
+      <c r="E22" s="43">
+        <f>C22*1.2</f>
         <v>1847</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F22" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G22" s="42" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
-      <c r="B25" s="40" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="70"/>
+      <c r="B23" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C23" s="43">
         <f>20*1000</f>
         <v>20000</v>
       </c>
+      <c r="D23" s="43">
+        <f>C23*0.8</f>
+        <v>16000</v>
+      </c>
+      <c r="E23" s="43">
+        <f>C23*1.2</f>
+        <v>24000</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="70"/>
+      <c r="B24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="43">
+        <v>6354</v>
+      </c>
+      <c r="D24" s="43">
+        <v>4720</v>
+      </c>
+      <c r="E24" s="43">
+        <f>C24</f>
+        <v>6354</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="70"/>
+      <c r="B25" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="43">
+        <v>4</v>
+      </c>
       <c r="D25" s="43">
-        <f>C25*0.8</f>
-        <v>16000</v>
+        <f>C25</f>
+        <v>4</v>
       </c>
       <c r="E25" s="43">
-        <f>C25*1.2</f>
-        <v>24000</v>
+        <v>5</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="40" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C26" s="43">
-        <v>6354</v>
+        <v>2</v>
       </c>
       <c r="D26" s="43">
-        <v>4720</v>
+        <f>C26</f>
+        <v>2</v>
       </c>
       <c r="E26" s="43">
         <f>C26</f>
-        <v>6354</v>
+        <v>2</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="40" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C27" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="43">
         <f>C27</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="43">
-        <v>5</v>
+        <f>C27</f>
+        <v>2</v>
       </c>
       <c r="F27" s="42" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C28" s="43">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D28" s="43">
         <f>C28</f>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="43">
         <f>C28</f>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="43">
-        <v>2</v>
-      </c>
-      <c r="D29" s="43">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="D29" s="20">
         <f>C29</f>
-        <v>2</v>
-      </c>
-      <c r="E29" s="43">
+        <v>0.02</v>
+      </c>
+      <c r="E29" s="20">
         <f>C29</f>
-        <v>2</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>114</v>
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="43">
-        <v>1000</v>
-      </c>
-      <c r="D30" s="43">
-        <f>C30</f>
-        <v>1000</v>
-      </c>
-      <c r="E30" s="43">
-        <f>C30</f>
-        <v>1000</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
-        <v>60</v>
-      </c>
+      <c r="A30" s="61"/>
+      <c r="B30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" ref="D30:D34" si="4">C30</f>
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" ref="E30:E34" si="5">C30</f>
+        <v>0.02</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="61"/>
       <c r="B31" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" s="20">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="D31" s="20">
-        <f>C31</f>
-        <v>0.02</v>
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
       <c r="E31" s="20">
-        <f>C31</f>
-        <v>0.02</v>
+        <f t="shared" si="5"/>
+        <v>0.9</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C32" s="20">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" ref="D32:D36" si="4">C32</f>
-        <v>0.02</v>
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" ref="E32:E36" si="5">C32</f>
-        <v>0.02</v>
+        <f t="shared" si="5"/>
+        <v>0.04</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="20">
-        <v>0.9</v>
+        <v>0.02</v>
       </c>
       <c r="D33" s="20">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.02</v>
       </c>
       <c r="E33" s="20">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>0.02</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C34" s="20">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D34" s="20">
         <f t="shared" si="4"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E34" s="20">
         <f t="shared" si="5"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C35" s="20">
-        <v>0.02</v>
+        <v>15</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
+        <f>C35*0.8</f>
+        <v>12</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="5"/>
-        <v>0.02</v>
+        <f>C35*1.2</f>
+        <v>18</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36" s="20">
-        <v>0.05</v>
+        <v>15</v>
       </c>
       <c r="D36" s="20">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
+        <f t="shared" ref="D36:D40" si="6">C36*0.8</f>
+        <v>12</v>
       </c>
       <c r="E36" s="20">
-        <f t="shared" si="5"/>
-        <v>0.05</v>
+        <f t="shared" ref="E36:E40" si="7">C36*1.2</f>
+        <v>18</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37" s="20">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="D37" s="20">
-        <f>C37*0.8</f>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.96</v>
       </c>
       <c r="E37" s="20">
-        <f>C37*1.2</f>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>1.44</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C38" s="20">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="D38" s="20">
-        <f t="shared" ref="D38:D42" si="6">C38*0.8</f>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.96</v>
       </c>
       <c r="E38" s="20">
-        <f t="shared" ref="E38:E42" si="7">C38*1.2</f>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>1.44</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" s="20">
-        <v>1.2</v>
+        <v>15</v>
       </c>
       <c r="D39" s="20">
         <f t="shared" si="6"/>
-        <v>0.96</v>
+        <v>12</v>
       </c>
       <c r="E39" s="20">
         <f t="shared" si="7"/>
-        <v>1.44</v>
+        <v>18</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" s="20">
-        <v>1.2</v>
+        <v>15</v>
       </c>
       <c r="D40" s="20">
         <f t="shared" si="6"/>
-        <v>0.96</v>
+        <v>12</v>
       </c>
       <c r="E40" s="20">
         <f t="shared" si="7"/>
-        <v>1.44</v>
+        <v>18</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="15" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C41" s="20">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="D41" s="20">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f>C41*0.8</f>
+        <v>0.55999999999999994</v>
       </c>
       <c r="E41" s="20">
-        <f t="shared" si="7"/>
-        <v>18</v>
+        <f t="shared" ref="E41" si="8">C41</f>
+        <v>0.7</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="20">
-        <v>15</v>
-      </c>
-      <c r="D42" s="20">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="E42" s="20">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="D43" s="20">
-        <f>C43*0.8</f>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="E43" s="20">
-        <f t="shared" ref="E43" si="8">C43</f>
-        <v>0.7</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="60" t="s">
+    <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B42" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="24">
-        <f>80000/18000*(C26*2)</f>
+      <c r="C42" s="24">
+        <f>80000/18000*(C24*2)</f>
         <v>56480</v>
       </c>
-      <c r="D44" s="24">
-        <f t="shared" ref="D44:E44" si="9">80000/18000*(D26*2)</f>
+      <c r="D42" s="24">
+        <f t="shared" ref="D42:E42" si="9">80000/18000*(D24*2)</f>
         <v>41955.555555555555</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E42" s="24">
         <f t="shared" si="9"/>
         <v>56480</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F42" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G42" s="25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
-      <c r="B45" s="23" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="63"/>
+      <c r="B43" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="24">
-        <f>80/18000*(2*C26)</f>
+      <c r="C43" s="24">
+        <f>80/18000*(2*C24)</f>
         <v>56.48</v>
       </c>
-      <c r="D45" s="24">
-        <f t="shared" ref="D45:E45" si="10">80/18000*(2*D26)</f>
+      <c r="D43" s="24">
+        <f t="shared" ref="D43:E43" si="10">80/18000*(2*D24)</f>
         <v>41.955555555555556</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E43" s="24">
         <f t="shared" si="10"/>
         <v>56.48</v>
       </c>
+      <c r="F43" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="63"/>
+      <c r="B44" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="24">
+        <f>64/18000*(2*C24)</f>
+        <v>45.184000000000005</v>
+      </c>
+      <c r="D44" s="24">
+        <f t="shared" ref="D44:E44" si="11">64/18000*(2*D24)</f>
+        <v>33.564444444444447</v>
+      </c>
+      <c r="E44" s="24">
+        <f t="shared" si="11"/>
+        <v>45.184000000000005</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="64"/>
+      <c r="B45" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="24">
+        <f>(15+15+20+20+20+20+19+19+20+20+20+20+20+20)/1000/18000*(2*C24)</f>
+        <v>0.18920800000000002</v>
+      </c>
+      <c r="D45" s="24">
+        <f t="shared" ref="D45:E45" si="12">(15+15+20+20+20+20+19+19+20+20+20+20+20+20)/1000/18000*(2*D24)</f>
+        <v>0.14055111111111113</v>
+      </c>
+      <c r="E45" s="24">
+        <f t="shared" si="12"/>
+        <v>0.18920800000000002</v>
+      </c>
       <c r="F45" s="25" t="s">
         <v>105</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
-      <c r="B46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="24">
-        <f>64/18000*(2*C26)</f>
-        <v>45.184000000000005</v>
-      </c>
-      <c r="D46" s="24">
-        <f t="shared" ref="D46:E46" si="11">64/18000*(2*D26)</f>
-        <v>33.564444444444447</v>
-      </c>
-      <c r="E46" s="24">
-        <f t="shared" si="11"/>
-        <v>45.184000000000005</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="24">
-        <f>(15+15+20+20+20+20+19+19+20+20+20+20+20+20)/1000/18000*(2*C26)</f>
-        <v>0.18920800000000002</v>
-      </c>
-      <c r="D47" s="24">
-        <f t="shared" ref="D47:E47" si="12">(15+15+20+20+20+20+19+19+20+20+20+20+20+20)/1000/18000*(2*D26)</f>
-        <v>0.14055111111111113</v>
-      </c>
-      <c r="E47" s="24">
-        <f t="shared" si="12"/>
-        <v>0.18920800000000002</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="63" t="s">
+      <c r="A46" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B46" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C46" s="27">
         <f>362+159</f>
         <v>521</v>
       </c>
+      <c r="D46" s="27">
+        <f>C46*0.8</f>
+        <v>416.8</v>
+      </c>
+      <c r="E46" s="27">
+        <f>C46*1.2</f>
+        <v>625.19999999999993</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="65"/>
+      <c r="B47" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="27">
+        <v>7602.94</v>
+      </c>
+      <c r="D47" s="27">
+        <f t="shared" ref="D47:D53" si="13">C47*0.8</f>
+        <v>6082.3519999999999</v>
+      </c>
+      <c r="E47" s="27">
+        <f t="shared" ref="E47:E53" si="14">C47*1.2</f>
+        <v>9123.5279999999984</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="65"/>
+      <c r="B48" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="27">
+        <v>8443.268</v>
+      </c>
       <c r="D48" s="27">
-        <f>C48*0.8</f>
-        <v>416.8</v>
+        <f t="shared" si="13"/>
+        <v>6754.6144000000004</v>
       </c>
       <c r="E48" s="27">
-        <f>C48*1.2</f>
-        <v>625.19999999999993</v>
+        <f t="shared" si="14"/>
+        <v>10131.9216</v>
       </c>
       <c r="F48" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C49" s="27">
-        <v>7602.94</v>
+        <v>3</v>
       </c>
       <c r="D49" s="27">
-        <f t="shared" ref="D49:D55" si="13">C49*0.8</f>
-        <v>6082.3519999999999</v>
+        <f t="shared" si="13"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="E49" s="27">
-        <f t="shared" ref="E49:E55" si="14">C49*1.2</f>
-        <v>9123.5279999999984</v>
+        <f t="shared" si="14"/>
+        <v>3.5999999999999996</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" s="27">
-        <v>8443.268</v>
+        <v>21.5</v>
       </c>
       <c r="D50" s="27">
         <f t="shared" si="13"/>
-        <v>6754.6144000000004</v>
+        <v>17.2</v>
       </c>
       <c r="E50" s="27">
         <f t="shared" si="14"/>
-        <v>10131.9216</v>
+        <v>25.8</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C51" s="27">
-        <v>3</v>
+        <v>12.6</v>
       </c>
       <c r="D51" s="27">
         <f t="shared" si="13"/>
-        <v>2.4000000000000004</v>
+        <v>10.08</v>
       </c>
       <c r="E51" s="27">
         <f t="shared" si="14"/>
-        <v>3.5999999999999996</v>
+        <v>15.12</v>
       </c>
       <c r="F51" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
-      <c r="B52" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="27">
-        <v>21.5</v>
-      </c>
-      <c r="D52" s="27">
-        <f t="shared" si="13"/>
-        <v>17.2</v>
-      </c>
-      <c r="E52" s="27">
-        <f t="shared" si="14"/>
-        <v>25.8</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
-      <c r="B53" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="27">
-        <v>12.6</v>
-      </c>
-      <c r="D53" s="27">
-        <f t="shared" si="13"/>
-        <v>10.08</v>
-      </c>
-      <c r="E53" s="27">
-        <f t="shared" si="14"/>
-        <v>15.12</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="28" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="57" t="s">
+    <row r="52" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B52" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C52" s="21">
         <v>48800000</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D52" s="21">
         <f t="shared" si="13"/>
         <v>39040000</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E52" s="21">
         <f t="shared" si="14"/>
         <v>58560000</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
-      <c r="B55" s="16" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="59"/>
+      <c r="B53" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C53" s="21">
         <v>307736</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D53" s="21">
         <f t="shared" si="13"/>
         <v>246188.80000000002</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E53" s="21">
         <f t="shared" si="14"/>
         <v>369283.2</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G53" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64" t="s">
+    <row r="54" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B54" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C54" s="46">
         <f>0.4906*0.89</f>
         <v>0.43663399999999997</v>
       </c>
-      <c r="D56" s="46">
-        <f>C56*0.9622</f>
+      <c r="D54" s="46">
+        <f>C54*0.9622</f>
         <v>0.42012923479999997</v>
       </c>
-      <c r="E56" s="46">
-        <f>C56*1.033</f>
+      <c r="E54" s="46">
+        <f>C54*1.033</f>
         <v>0.45104292199999996</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="G54" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="L56" s="22"/>
-    </row>
-    <row r="57" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="29" t="s">
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67"/>
+      <c r="B55" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C55" s="30">
         <f>22.7/5</f>
         <v>4.54</v>
       </c>
+      <c r="D55" s="30">
+        <f t="shared" ref="D55:D58" si="15">C55*0.8</f>
+        <v>3.6320000000000001</v>
+      </c>
+      <c r="E55" s="30">
+        <f t="shared" ref="E55:E58" si="16">C55*1.2</f>
+        <v>5.4479999999999995</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="67"/>
+      <c r="B56" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="30">
+        <f>220/5*100</f>
+        <v>4400</v>
+      </c>
+      <c r="D56" s="30">
+        <f t="shared" si="15"/>
+        <v>3520</v>
+      </c>
+      <c r="E56" s="30">
+        <f t="shared" si="16"/>
+        <v>5280</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="67"/>
+      <c r="B57" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="30">
+        <f>4.5/5</f>
+        <v>0.9</v>
+      </c>
       <c r="D57" s="30">
-        <f t="shared" ref="D57:D60" si="15">C57*0.8</f>
-        <v>3.6320000000000001</v>
+        <f t="shared" si="15"/>
+        <v>0.72000000000000008</v>
       </c>
       <c r="E57" s="30">
-        <f t="shared" ref="E57:E60" si="16">C57*1.2</f>
-        <v>5.4479999999999995</v>
+        <f t="shared" si="16"/>
+        <v>1.08</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>58</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L57" s="22"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="29" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C58" s="30">
-        <f>220/5*100</f>
-        <v>4400</v>
+        <f>53.328/5</f>
+        <v>10.665600000000001</v>
       </c>
       <c r="D58" s="30">
         <f t="shared" si="15"/>
-        <v>3520</v>
+        <v>8.5324800000000014</v>
       </c>
       <c r="E58" s="30">
         <f t="shared" si="16"/>
-        <v>5280</v>
+        <v>12.798720000000001</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>58</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L58" s="22"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="65"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="30">
-        <f>4.5/5</f>
-        <v>0.9</v>
-      </c>
-      <c r="D59" s="30">
-        <f t="shared" si="15"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="E59" s="30">
-        <f t="shared" si="16"/>
-        <v>1.08</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="31" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L59" s="22"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="65"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="29" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="C60" s="30">
-        <f>53.328/5</f>
-        <v>10.665600000000001</v>
+        <v>35</v>
       </c>
       <c r="D60" s="30">
-        <f t="shared" si="15"/>
-        <v>8.5324800000000014</v>
+        <f>C60*0.8</f>
+        <v>28</v>
       </c>
       <c r="E60" s="30">
-        <f t="shared" si="16"/>
-        <v>12.798720000000001</v>
+        <f>C60*1.1</f>
+        <v>38.5</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L60" s="22"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="L61" s="22"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
-      <c r="B62" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="L62" s="22"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
-      <c r="B63" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="L63" s="22"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
-      <c r="B64" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="L64" s="22"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="30">
-        <v>35</v>
-      </c>
-      <c r="D65" s="30">
-        <f>C65*0.8</f>
-        <v>28</v>
-      </c>
-      <c r="E65" s="30">
-        <f>C65*1.1</f>
-        <v>38.5</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="L65" s="22"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="L66" s="22"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="B67" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="L67" s="22"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="L69" s="22"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="47"/>
-      <c r="B70" s="36" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="48">
+      <c r="C61" s="48">
         <f>0.4348*0.89</f>
         <v>0.38697200000000004</v>
       </c>
-      <c r="D70" s="48">
-        <f>C70*0.9622</f>
+      <c r="D61" s="48">
+        <f>C61*0.9622</f>
         <v>0.37234445840000008</v>
       </c>
-      <c r="E70" s="48">
-        <f>C70*1.033</f>
+      <c r="E61" s="48">
+        <f>C61*1.033</f>
         <v>0.399742076</v>
       </c>
-      <c r="F70" s="38" t="s">
+      <c r="F61" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="31" t="s">
+      <c r="G61" s="31" t="s">
         <v>206</v>
       </c>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D62" s="33">
+        <f>C62*0.8</f>
+        <v>0.2</v>
+      </c>
+      <c r="E62" s="33">
+        <f>C62*1.2</f>
+        <v>0.3</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="72"/>
+      <c r="B63" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="D63" s="33">
+        <f t="shared" ref="D63:D79" si="17">C63*0.8</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E63" s="33">
+        <f t="shared" ref="E63:E79" si="18">C63*1.2</f>
+        <v>0.24</v>
+      </c>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="72"/>
+      <c r="B64" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="D64" s="33">
+        <f t="shared" si="17"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E64" s="33">
+        <f t="shared" si="18"/>
+        <v>0.24</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="72"/>
+      <c r="B65" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="D65" s="33">
+        <f t="shared" si="17"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="E65" s="33">
+        <f t="shared" si="18"/>
+        <v>0.24</v>
+      </c>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="72"/>
+      <c r="B66" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="33">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="E66" s="33">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="72"/>
+      <c r="B67" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="33">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+      <c r="E67" s="33">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="72"/>
+      <c r="B68" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="D68" s="33">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="E68" s="33">
+        <f t="shared" si="18"/>
+        <v>0.3</v>
+      </c>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="L68" s="22"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="72"/>
+      <c r="B69" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="D69" s="33">
+        <f t="shared" si="17"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E69" s="33">
+        <f t="shared" si="18"/>
+        <v>0.12</v>
+      </c>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L69" s="22"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="72"/>
+      <c r="B70" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="D70" s="33">
+        <f t="shared" si="17"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E70" s="33">
+        <f t="shared" si="18"/>
+        <v>0.12</v>
+      </c>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34" t="s">
+        <v>181</v>
+      </c>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="69" t="s">
-        <v>69</v>
-      </c>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="72"/>
       <c r="B71" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="33">
-        <v>0.25</v>
+        <v>76</v>
+      </c>
+      <c r="C71" s="35">
+        <v>0.1</v>
       </c>
       <c r="D71" s="33">
-        <f>C71*0.8</f>
-        <v>0.2</v>
+        <f t="shared" si="17"/>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E71" s="33">
-        <f>C71*1.2</f>
-        <v>0.3</v>
+        <f t="shared" si="18"/>
+        <v>0.12</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34" t="s">
-        <v>173</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="L71" s="22"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="70"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="33">
-        <v>0.2</v>
+        <v>77</v>
+      </c>
+      <c r="C72" s="35">
+        <v>0.45</v>
       </c>
       <c r="D72" s="33">
-        <f t="shared" ref="D72:D88" si="17">C72*0.8</f>
-        <v>0.16000000000000003</v>
+        <f t="shared" si="17"/>
+        <v>0.36000000000000004</v>
       </c>
       <c r="E72" s="33">
-        <f t="shared" ref="E72:E88" si="18">C72*1.2</f>
-        <v>0.24</v>
+        <f t="shared" si="18"/>
+        <v>0.54</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34" t="s">
-        <v>174</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="L72" s="22"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="70"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="33">
-        <v>0.2</v>
+        <v>122</v>
+      </c>
+      <c r="C73" s="35">
+        <v>0.45</v>
       </c>
       <c r="D73" s="33">
         <f t="shared" si="17"/>
-        <v>0.16000000000000003</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="E73" s="33">
         <f t="shared" si="18"/>
-        <v>0.24</v>
+        <v>0.54</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34" t="s">
-        <v>175</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="L73" s="22"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="70"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="32" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C74" s="35">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D74" s="33">
         <f t="shared" si="17"/>
-        <v>0.16000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="E74" s="33">
         <f t="shared" si="18"/>
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="70"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="35">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="C75" s="33">
+        <v>0.7</v>
       </c>
       <c r="D75" s="33">
         <f t="shared" si="17"/>
-        <v>0.4</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="E75" s="33">
         <f t="shared" si="18"/>
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="70"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="35">
-        <v>0.5</v>
+        <v>82</v>
+      </c>
+      <c r="C76" s="33">
+        <v>0.7</v>
       </c>
       <c r="D76" s="33">
         <f t="shared" si="17"/>
-        <v>0.4</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="E76" s="33">
         <f t="shared" si="18"/>
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="70"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="35">
-        <v>0.25</v>
+        <v>83</v>
+      </c>
+      <c r="C77" s="33">
+        <v>0.7</v>
       </c>
       <c r="D77" s="33">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="E77" s="33">
         <f t="shared" si="18"/>
-        <v>0.3</v>
+        <v>0.84</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="L77" s="22"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="70"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="35">
-        <v>0.1</v>
+        <v>84</v>
+      </c>
+      <c r="C78" s="33">
+        <v>0.05</v>
       </c>
       <c r="D78" s="33">
         <f t="shared" si="17"/>
-        <v>8.0000000000000016E-2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E78" s="33">
         <f t="shared" si="18"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="L78" s="22"/>
+        <v>189</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="70"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="35">
-        <v>0.1</v>
+        <v>121</v>
+      </c>
+      <c r="C79" s="33">
+        <v>0.05</v>
       </c>
       <c r="D79" s="33">
         <f t="shared" si="17"/>
-        <v>8.0000000000000016E-2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="E79" s="33">
         <f t="shared" si="18"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="L79" s="22"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="70"/>
-      <c r="B80" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="D80" s="33">
-        <f t="shared" si="17"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="E80" s="33">
-        <f t="shared" si="18"/>
-        <v>0.12</v>
-      </c>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="L80" s="22"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="70"/>
-      <c r="B81" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="35">
-        <v>0.45</v>
-      </c>
-      <c r="D81" s="33">
-        <f t="shared" si="17"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="E81" s="33">
-        <f t="shared" si="18"/>
-        <v>0.54</v>
-      </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34" t="s">
-        <v>183</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="70"/>
-      <c r="B82" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="35">
-        <v>0.45</v>
-      </c>
-      <c r="D82" s="33">
-        <f t="shared" si="17"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="E82" s="33">
-        <f t="shared" si="18"/>
-        <v>0.54</v>
-      </c>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="L82" s="22"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="70"/>
-      <c r="B83" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="D83" s="33">
-        <f t="shared" si="17"/>
-        <v>0.4</v>
-      </c>
-      <c r="E83" s="33">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="70"/>
-      <c r="B84" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="D84" s="33">
-        <f t="shared" si="17"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="E84" s="33">
-        <f t="shared" si="18"/>
-        <v>0.84</v>
-      </c>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="70"/>
-      <c r="B85" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="D85" s="33">
-        <f t="shared" si="17"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="E85" s="33">
-        <f t="shared" si="18"/>
-        <v>0.84</v>
-      </c>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="70"/>
-      <c r="B86" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="D86" s="33">
-        <f t="shared" si="17"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="E86" s="33">
-        <f t="shared" si="18"/>
-        <v>0.84</v>
-      </c>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="70"/>
-      <c r="B87" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="D87" s="33">
-        <f t="shared" si="17"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E87" s="33">
-        <f t="shared" si="18"/>
-        <v>0.06</v>
-      </c>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="70"/>
-      <c r="B88" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C88" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="D88" s="33">
-        <f t="shared" si="17"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E88" s="33">
-        <f t="shared" si="18"/>
-        <v>0.06</v>
-      </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L90" s="22"/>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="22"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L103" s="22"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L104" s="22"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L105" s="22"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L106" s="22"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L107" s="22"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L108" s="22"/>
     </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L109" s="22"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L110" s="22"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L111" s="22"/>
+    </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L112" s="22"/>
     </row>
@@ -8116,48 +7879,21 @@
     <row r="115" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L115" s="22"/>
     </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L116" s="22"/>
-    </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L117" s="22"/>
     </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L118" s="22"/>
-    </row>
-    <row r="119" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L119" s="22"/>
-    </row>
-    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L120" s="22"/>
-    </row>
-    <row r="121" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L121" s="22"/>
-    </row>
-    <row r="122" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L122" s="22"/>
-    </row>
-    <row r="123" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L123" s="22"/>
-    </row>
-    <row r="124" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L124" s="22"/>
-    </row>
-    <row r="126" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L126" s="22"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A69"/>
-    <mergeCell ref="A71:A88"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A62:A79"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A42:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
